--- a/notebooks/Data/Star_Wars_Episode_IV_A_New_Hope/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_IV_A_New_Hope/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,9 +28,15 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>out_degree</t>
+  </si>
+  <si>
     <t>MSE-6-G735Y</t>
   </si>
   <si>
@@ -349,109 +355,109 @@
     <t>Bail Organa</t>
   </si>
   <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>R4-D6</t>
+  </si>
+  <si>
+    <t>Edmos Khurgee</t>
+  </si>
+  <si>
+    <t>John D. Branon</t>
+  </si>
+  <si>
+    <t>Tedn Dahai</t>
+  </si>
+  <si>
+    <t>Lirin Car'n</t>
+  </si>
+  <si>
+    <t>Elyhek Rue</t>
+  </si>
+  <si>
+    <t>TK-8332</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Crag</t>
+  </si>
+  <si>
+    <t>Veertag</t>
+  </si>
+  <si>
+    <t>Arleil Schous</t>
+  </si>
+  <si>
+    <t>Takeel</t>
+  </si>
+  <si>
+    <t>Muftak</t>
+  </si>
+  <si>
+    <t>Rycar Ryjerd</t>
+  </si>
+  <si>
+    <t>Shann Childsen</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>TK-9091</t>
+  </si>
+  <si>
+    <t>TK-7624</t>
+  </si>
+  <si>
+    <t>Bolvan</t>
+  </si>
+  <si>
+    <t>TD-787</t>
+  </si>
+  <si>
+    <t>Cobb Sonbepol</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Elis Helrot</t>
+  </si>
+  <si>
+    <t>Davish Krail</t>
+  </si>
+  <si>
+    <t>Dex Tiree</t>
+  </si>
+  <si>
+    <t>Doikk Na'ts</t>
+  </si>
+  <si>
+    <t>Wedge Antilles</t>
+  </si>
+  <si>
+    <t>Momaw Nadon</t>
+  </si>
+  <si>
+    <t>Hurst Romodi</t>
+  </si>
+  <si>
+    <t>Hem Dazon</t>
+  </si>
+  <si>
+    <t>Lak Sivrak</t>
+  </si>
+  <si>
+    <t>Trech Molock</t>
+  </si>
+  <si>
     <t>Leesub Sirln</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>R4-D6</t>
-  </si>
-  <si>
-    <t>Edmos Khurgee</t>
-  </si>
-  <si>
-    <t>John D. Branon</t>
-  </si>
-  <si>
-    <t>Tedn Dahai</t>
-  </si>
-  <si>
-    <t>Lirin Car'n</t>
-  </si>
-  <si>
-    <t>Elyhek Rue</t>
-  </si>
-  <si>
-    <t>TK-8332</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Crag</t>
-  </si>
-  <si>
-    <t>Veertag</t>
-  </si>
-  <si>
-    <t>Arleil Schous</t>
-  </si>
-  <si>
-    <t>Takeel</t>
-  </si>
-  <si>
-    <t>Muftak</t>
-  </si>
-  <si>
-    <t>Rycar Ryjerd</t>
-  </si>
-  <si>
-    <t>Shann Childsen</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>TK-9091</t>
-  </si>
-  <si>
-    <t>TK-7624</t>
-  </si>
-  <si>
-    <t>Bolvan</t>
-  </si>
-  <si>
-    <t>TD-787</t>
-  </si>
-  <si>
-    <t>Cobb Sonbepol</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Elis Helrot</t>
-  </si>
-  <si>
-    <t>Davish Krail</t>
-  </si>
-  <si>
-    <t>Dex Tiree</t>
-  </si>
-  <si>
-    <t>Doikk Na'ts</t>
-  </si>
-  <si>
-    <t>Wedge Antilles</t>
-  </si>
-  <si>
-    <t>Hurst Romodi</t>
-  </si>
-  <si>
-    <t>Hem Dazon</t>
-  </si>
-  <si>
-    <t>Lak Sivrak</t>
-  </si>
-  <si>
-    <t>Trech Molock</t>
-  </si>
-  <si>
-    <t>Momaw Nadon</t>
   </si>
   <si>
     <t>Beedo</t>
@@ -842,13 +848,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,13 +870,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0001942470880920433</v>
+        <v>0.0001959062521976429</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -879,18 +891,24 @@
         <v>0.04635761589403974</v>
       </c>
       <c r="E2">
-        <v>0.001473671158248196</v>
-      </c>
-      <c r="F2" t="s">
+        <v>0.001489428767608845</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03009313101210903</v>
+        <v>0.0309494939487865</v>
       </c>
       <c r="C3">
         <v>74</v>
@@ -899,13 +917,19 @@
         <v>0.4900662251655629</v>
       </c>
       <c r="E3">
-        <v>0.2949335328840963</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.2948768232046292</v>
+      </c>
+      <c r="F3">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -919,13 +943,19 @@
         <v>0.006622516556291391</v>
       </c>
       <c r="E4">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -939,13 +969,19 @@
         <v>0.03973509933774835</v>
       </c>
       <c r="E5">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -959,13 +995,19 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E6">
-        <v>0.03127523319228278</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03154541891547323</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -979,13 +1021,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E7">
-        <v>6.560364644578867e-13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>6.90995314838215e-13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -999,13 +1047,19 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E8">
-        <v>6.013993977164686e-11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>6.334467498113908e-11</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1019,13 +1073,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1039,18 +1099,24 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E10">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0002701378394794834</v>
+        <v>0.0002863262132837513</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -1059,13 +1125,19 @@
         <v>0.09271523178807947</v>
       </c>
       <c r="E11">
-        <v>0.0539976403174768</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.05458871917223532</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1079,33 +1151,45 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E12">
-        <v>1.17499068261114e-13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.237603548963967e-13</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.000459613058316546</v>
+        <v>0.0003807708801366196</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>0.09933774834437085</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="E13">
-        <v>0.08075704137723209</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.06118080652872697</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1119,18 +1203,24 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E14">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.006983730548981816</v>
+        <v>0.006988783136815862</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1139,13 +1229,19 @@
         <v>0.1125827814569536</v>
       </c>
       <c r="E15">
-        <v>0.1012199176634899</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.1019922666608708</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1159,13 +1255,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E16">
-        <v>4.009655704410519e-11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4.223322110839538e-11</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1179,13 +1281,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E17">
-        <v>0.0004717854649518102</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.0004816861336499859</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1199,18 +1307,24 @@
         <v>0.07947019867549669</v>
       </c>
       <c r="E18">
-        <v>5.020101768903586e-07</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>5.287612793276513e-07</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0003509156154267179</v>
+        <v>0.0003649490433674306</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -1219,18 +1333,24 @@
         <v>0.07947019867549669</v>
       </c>
       <c r="E19">
-        <v>0.05200290827645755</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.05102038743366088</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0002548617681068012</v>
+        <v>0.0002527593818984548</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1239,13 +1359,19 @@
         <v>0.09933774834437085</v>
       </c>
       <c r="E20">
-        <v>0.114257275401892</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.1152566111211692</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1259,18 +1385,24 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E21">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.110575958258077e-05</v>
+        <v>3.311258278145695e-05</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -1279,13 +1411,19 @@
         <v>0.07947019867549669</v>
       </c>
       <c r="E22">
-        <v>0.06941710523293965</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.07032162729998165</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1299,13 +1437,19 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E23">
-        <v>6.003223229240753e-11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>6.323122798915069e-11</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1319,13 +1463,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1339,13 +1489,19 @@
         <v>0.006622516556291391</v>
       </c>
       <c r="E25">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1359,13 +1515,19 @@
         <v>0.07947019867549669</v>
       </c>
       <c r="E26">
-        <v>0.02961779282941173</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02994727860785466</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1379,13 +1541,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E27">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1399,13 +1567,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E28">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1419,13 +1593,19 @@
         <v>0.03973509933774835</v>
       </c>
       <c r="E29">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1439,13 +1619,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E30">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1459,13 +1645,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E31">
-        <v>0.001359983731943568</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.001276728135448732</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1479,13 +1671,19 @@
         <v>0.03973509933774835</v>
       </c>
       <c r="E32">
-        <v>0.0004717854650595177</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0004816861337634329</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1499,13 +1697,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E33">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1519,18 +1723,24 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E34">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.04172230693143146</v>
+        <v>0.04220485034418102</v>
       </c>
       <c r="C35">
         <v>69</v>
@@ -1539,18 +1749,24 @@
         <v>0.456953642384106</v>
       </c>
       <c r="E35">
-        <v>0.2688828093058379</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.2700719114555133</v>
+      </c>
+      <c r="F35">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.07532796108637337</v>
+        <v>0.07539133805647533</v>
       </c>
       <c r="C36">
         <v>77</v>
@@ -1559,13 +1775,19 @@
         <v>0.5099337748344371</v>
       </c>
       <c r="E36">
-        <v>0.273459610852313</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.2731643281439959</v>
+      </c>
+      <c r="F36">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1579,13 +1801,19 @@
         <v>0.04635761589403974</v>
       </c>
       <c r="E37">
-        <v>0.001376513363422007</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.001390715859921478</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1599,18 +1827,24 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E38">
-        <v>6.013993977164686e-11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>6.334467498113908e-11</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.00274790556789306</v>
+        <v>0.002746271440431118</v>
       </c>
       <c r="C39">
         <v>23</v>
@@ -1619,13 +1853,19 @@
         <v>0.152317880794702</v>
       </c>
       <c r="E39">
-        <v>0.1751475058260258</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.1767510128157454</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1639,13 +1879,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E40">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1659,13 +1905,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E41">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1679,18 +1931,24 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E42">
-        <v>0.005464897905506461</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.005542872008237999</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0001206769683590876</v>
+        <v>0.0001317144959529065</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1699,13 +1957,19 @@
         <v>0.03973509933774835</v>
       </c>
       <c r="E43">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1719,13 +1983,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E44">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1739,13 +2009,19 @@
         <v>0.04635761589403974</v>
       </c>
       <c r="E45">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1759,33 +2035,45 @@
         <v>0.006622516556291391</v>
       </c>
       <c r="E46">
-        <v>0.001339594760182922</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.001360705369349924</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01454777265831025</v>
+        <v>0.01253001833757579</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>0.152317880794702</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="E47">
-        <v>0.1030401611592398</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.08344927369879734</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1799,13 +2087,19 @@
         <v>0.006622516556291391</v>
       </c>
       <c r="E48">
-        <v>0.001359983731943568</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.001276728135448732</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1819,13 +2113,19 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E49">
-        <v>0.00346584494216754</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.003517198405052549</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1839,13 +2139,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E50">
-        <v>0.01199475583852255</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01206326144587841</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1859,13 +2165,19 @@
         <v>0.006622516556291391</v>
       </c>
       <c r="E51">
-        <v>9.599316948055042e-05</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>9.062690167615087e-05</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1879,18 +2191,24 @@
         <v>0.05960264900662252</v>
       </c>
       <c r="E52">
-        <v>0.0356642942747466</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.03587043234097557</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0001247240618101545</v>
+        <v>0.0001251719614806283</v>
       </c>
       <c r="C53">
         <v>12</v>
@@ -1899,13 +2217,19 @@
         <v>0.07947019867549669</v>
       </c>
       <c r="E53">
-        <v>1.17499068261114e-13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1.237603548963967e-13</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1919,18 +2243,24 @@
         <v>0.04635761589403974</v>
       </c>
       <c r="E54">
-        <v>0.01930120757632192</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01938888224278395</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.01042925992792723</v>
+        <v>0.01048433113563304</v>
       </c>
       <c r="C55">
         <v>46</v>
@@ -1939,18 +2269,24 @@
         <v>0.304635761589404</v>
       </c>
       <c r="E55">
-        <v>0.2308756658713464</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.232906300527186</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.006800570309395799</v>
+        <v>0.006837116440744698</v>
       </c>
       <c r="C56">
         <v>35</v>
@@ -1959,13 +2295,19 @@
         <v>0.2317880794701987</v>
       </c>
       <c r="E56">
-        <v>0.22614106210258</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.2269456776492822</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1979,18 +2321,24 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E57">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.007196591916790593</v>
+        <v>0.007213064469378726</v>
       </c>
       <c r="C58">
         <v>42</v>
@@ -1999,13 +2347,19 @@
         <v>0.2781456953642384</v>
       </c>
       <c r="E58">
-        <v>0.2428196319488027</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2422530679725325</v>
+      </c>
+      <c r="F58">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2019,13 +2373,19 @@
         <v>0.06622516556291391</v>
       </c>
       <c r="E59">
-        <v>5.020101768903586e-07</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>5.287612793276513e-07</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2039,13 +2399,19 @@
         <v>0.0728476821192053</v>
       </c>
       <c r="E60">
-        <v>0.01897843902870135</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.01916964638349213</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2059,13 +2425,19 @@
         <v>0.04635761589403974</v>
       </c>
       <c r="E61">
-        <v>0.006683139750061046</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.006785201254172848</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2079,13 +2451,19 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2099,13 +2477,19 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E63">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2119,18 +2503,24 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E64">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0004450751603069484</v>
+        <v>0.0004466519499632083</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -2139,18 +2529,24 @@
         <v>0.0728476821192053</v>
       </c>
       <c r="E65">
-        <v>0.04576011802856365</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04633360729908904</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.003087368971474933</v>
+        <v>0.003089819060017736</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -2159,13 +2555,19 @@
         <v>0.05298013245033113</v>
       </c>
       <c r="E66">
-        <v>0.02817395524046355</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02849390679107635</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2179,18 +2581,24 @@
         <v>0.05298013245033113</v>
       </c>
       <c r="E67">
-        <v>0.01950238119591409</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01959331510709128</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01117008332013627</v>
+        <v>0.0112232898389057</v>
       </c>
       <c r="C68">
         <v>26</v>
@@ -2199,13 +2607,19 @@
         <v>0.1721854304635762</v>
       </c>
       <c r="E68">
-        <v>0.1628230120101435</v>
-      </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1625583750147596</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2219,13 +2633,19 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2239,13 +2659,19 @@
         <v>0.06622516556291391</v>
       </c>
       <c r="E70">
-        <v>0.01926781915523518</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.01798679824612358</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2259,13 +2685,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E71">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2279,13 +2711,19 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E72">
-        <v>5.202564994931477e-10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>5.479799113925205e-10</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2299,13 +2737,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E73">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2319,13 +2763,19 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2339,13 +2789,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E75">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2359,18 +2815,24 @@
         <v>0.03973509933774835</v>
       </c>
       <c r="E76">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.01600990844631282</v>
+        <v>0.0163358360210751</v>
       </c>
       <c r="C77">
         <v>31</v>
@@ -2379,13 +2841,19 @@
         <v>0.2052980132450331</v>
       </c>
       <c r="E77">
-        <v>0.1350516447836858</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1349110566212447</v>
+      </c>
+      <c r="F77">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2399,13 +2867,19 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E78">
-        <v>5.202662910821695e-10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>5.479902247554284e-10</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2419,13 +2893,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E79">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2439,13 +2919,19 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2459,18 +2945,24 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E81">
-        <v>0.00766002870801564</v>
-      </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.007782782213979684</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003002207505518762</v>
+        <v>0.003002207505518764</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2479,18 +2971,24 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E82">
-        <v>1.17499068261114e-13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>1.237603548963967e-13</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.02521204756044217</v>
+        <v>0.02560387726671184</v>
       </c>
       <c r="C83">
         <v>57</v>
@@ -2499,13 +2997,19 @@
         <v>0.3774834437086093</v>
       </c>
       <c r="E83">
-        <v>0.2722692486989954</v>
-      </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.2746136913940256</v>
+      </c>
+      <c r="F83">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2519,13 +3023,19 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E84">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2539,13 +3049,19 @@
         <v>0.06622516556291391</v>
       </c>
       <c r="E85">
-        <v>5.020101768903586e-07</v>
-      </c>
-      <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>5.287612793276513e-07</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2559,13 +3075,19 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E86">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2579,13 +3101,19 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E87">
-        <v>6.003223229240753e-11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>6.323122798915071e-11</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2599,18 +3127,24 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E88">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.009022086924891756</v>
+        <v>0.009030119792196145</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -2619,13 +3153,19 @@
         <v>0.1854304635761589</v>
       </c>
       <c r="E89">
-        <v>0.07742111874012909</v>
-      </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.07808622581316774</v>
+      </c>
+      <c r="F89">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2639,13 +3179,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E90">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2659,13 +3205,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E91">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2679,18 +3231,24 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E92">
-        <v>0.009531682523735326</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.009575326942580845</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.004156362570756806</v>
+        <v>0.004332910636377718</v>
       </c>
       <c r="C93">
         <v>25</v>
@@ -2699,13 +3257,19 @@
         <v>0.1655629139072848</v>
       </c>
       <c r="E93">
-        <v>0.1451811748778748</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1452577248534326</v>
+      </c>
+      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2719,13 +3283,19 @@
         <v>0.01986754966887417</v>
       </c>
       <c r="E94">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2739,13 +3309,19 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E95">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2759,18 +3335,24 @@
         <v>0.006622516556291391</v>
       </c>
       <c r="E96">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.006174296520550997</v>
+        <v>0.006180631101604842</v>
       </c>
       <c r="C97">
         <v>19</v>
@@ -2779,13 +3361,19 @@
         <v>0.1258278145695364</v>
       </c>
       <c r="E97">
-        <v>0.04241773469435304</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.04276431288110574</v>
+      </c>
+      <c r="F97">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2799,13 +3387,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E98">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2819,18 +3413,24 @@
         <v>0.04635761589403974</v>
       </c>
       <c r="E99">
-        <v>1.17499068261114e-13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>1.237603548963967e-13</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0415747174922643</v>
+        <v>0.04156803365611027</v>
       </c>
       <c r="C100">
         <v>33</v>
@@ -2839,18 +3439,24 @@
         <v>0.2185430463576159</v>
       </c>
       <c r="E100">
-        <v>0.09468199654764477</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>0.09558994323128969</v>
+      </c>
+      <c r="F100">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0113140249678037</v>
+        <v>0.01133652050023301</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -2859,13 +3465,19 @@
         <v>0.06622516556291391</v>
       </c>
       <c r="E101">
-        <v>0.01883811799140265</v>
-      </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01898297368236208</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2879,13 +3491,19 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E102">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2899,33 +3517,45 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E103">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.05431194592796566</v>
+        <v>0.05126690714430202</v>
       </c>
       <c r="C104">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D104">
-        <v>0.456953642384106</v>
+        <v>0.4437086092715232</v>
       </c>
       <c r="E104">
-        <v>0.2845843310109803</v>
-      </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>0.287019242685854</v>
+      </c>
+      <c r="F104">
+        <v>45</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2939,18 +3569,24 @@
         <v>0.05960264900662252</v>
       </c>
       <c r="E105">
-        <v>0.0356642942747466</v>
-      </c>
-      <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.03587043234097557</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003077099623457239</v>
+        <v>0.003077959690542472</v>
       </c>
       <c r="C106">
         <v>14</v>
@@ -2959,18 +3595,24 @@
         <v>0.09271523178807947</v>
       </c>
       <c r="E106">
-        <v>0.04781816093778256</v>
-      </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0.04833236383040346</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.004641389569613179</v>
+        <v>0.004961512173187961</v>
       </c>
       <c r="C107">
         <v>27</v>
@@ -2979,13 +3621,19 @@
         <v>0.1788079470198675</v>
       </c>
       <c r="E107">
-        <v>0.1957816773162657</v>
-      </c>
-      <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>0.1962121614457362</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2993,19 +3641,25 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E108">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>0.01938888224278395</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3013,19 +3667,25 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D109">
-        <v>0.03973509933774835</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="E109">
-        <v>0.01930120757632192</v>
-      </c>
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>0.04804309988818879</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3033,59 +3693,77 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>0.05298013245033113</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="E110">
-        <v>0.04762510328101341</v>
-      </c>
-      <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>3.050371262291792e-05</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>0.01324503311258278</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E111">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>1.237603548963967e-13</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3.389987495947761e-05</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>0.01986754966887417</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="E112">
-        <v>1.17499068261114e-13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3093,119 +3771,155 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0.006622516556291391</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>0.01191134671702056</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="E114">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>0.006785201254172848</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01191134671702056</v>
+        <v>0.005772626931567329</v>
       </c>
       <c r="C115">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D115">
-        <v>0.08609271523178808</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="E115">
-        <v>0.006683139750061046</v>
-      </c>
-      <c r="F115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>0.001276728135448732</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.005772626931567329</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>0.03311258278145696</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E116">
-        <v>0.001359983731943568</v>
-      </c>
-      <c r="F116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>4.223322110839537e-11</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>0.009539094112001116</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D117">
-        <v>0.03973509933774835</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="E117">
-        <v>4.009655704410519e-11</v>
-      </c>
-      <c r="F117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.2607778547706891</v>
+      </c>
+      <c r="F117">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.008923408976144407</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0.2649006622516556</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0.2598831327579445</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3213,159 +3927,207 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E119">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>0.003090507726269316</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>0.02649006622516556</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="E120">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>5.287612896410141e-07</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.003090507726269316</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>0.0728476821192053</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E121">
-        <v>5.020101866819476e-07</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>2.207505518763797e-05</v>
       </c>
       <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>0.05298013245033113</v>
+      </c>
+      <c r="E122">
+        <v>0.007266887387925967</v>
+      </c>
+      <c r="F122">
         <v>3</v>
       </c>
-      <c r="D122">
-        <v>0.01986754966887417</v>
-      </c>
-      <c r="E122">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.207505518763797e-05</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>0.05298013245033113</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E123">
-        <v>0.007154925215110772</v>
-      </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>7.780580959388906e-05</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>0.02649006622516556</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E124">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>0.01938888224289739</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.629640411097365e-05</v>
+        <v>0.105603294525338</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="D125">
-        <v>0.03973509933774835</v>
+        <v>0.7483443708609272</v>
       </c>
       <c r="E125">
-        <v>0.01930120757642963</v>
-      </c>
-      <c r="F125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>0.3400068297312452</v>
+      </c>
+      <c r="F125">
+        <v>88</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1048488512019181</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>0.7483443708609272</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E126">
-        <v>0.3397018387251139</v>
-      </c>
-      <c r="F126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>8.044423068265786e-13</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3373,19 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>0.02649006622516556</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E127">
-        <v>7.637439436972411e-13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>4.223322110839537e-11</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3393,19 +4161,25 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>0.03973509933774835</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E128">
-        <v>4.009655704410519e-11</v>
-      </c>
-      <c r="F128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3413,19 +4187,25 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0.01986754966887417</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3433,19 +4213,25 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="E130">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+      <c r="H130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3453,19 +4239,25 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>0.09933774834437085</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E131">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3473,59 +4265,77 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>0.01986754966887417</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="E132">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>137</v>
+      </c>
+      <c r="H132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>5.445180279617366e-05</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133">
-        <v>0.03311258278145696</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E133">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>0.001450220795120076</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>4.415011037527594e-05</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134">
-        <v>0.03973509933774835</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="E134">
-        <v>0.001430489370085053</v>
-      </c>
-      <c r="F134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>0.001450220795120076</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3533,59 +4343,77 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>0.03311258278145696</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0.001430489370085053</v>
-      </c>
-      <c r="F135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>0.02928775355952276</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="E136">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>0.1686806798076949</v>
+      </c>
+      <c r="F136">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+      <c r="H136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.02723354531988408</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D137">
-        <v>0.1788079470198675</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E137">
-        <v>0.1685834065567809</v>
-      </c>
-      <c r="F137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>8.044423068265786e-13</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>142</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3599,13 +4427,19 @@
         <v>0.05960264900662252</v>
       </c>
       <c r="E138">
-        <v>0.009531682523735326</v>
-      </c>
-      <c r="F138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>0.009575326942580845</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>143</v>
+      </c>
+      <c r="H138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3619,13 +4453,19 @@
         <v>0.06622516556291391</v>
       </c>
       <c r="E139">
-        <v>5.020101768903586e-07</v>
-      </c>
-      <c r="F139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>5.287612793276513e-07</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
+      <c r="H139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3639,13 +4479,19 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E140">
-        <v>3.215264087075168e-10</v>
-      </c>
-      <c r="F140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>3.386598978110815e-10</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>145</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3659,13 +4505,19 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E141">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>146</v>
+      </c>
+      <c r="H141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3673,19 +4525,25 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>0.03973509933774835</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>7.637439436972411e-13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3699,18 +4557,24 @@
         <v>0.05960264900662252</v>
       </c>
       <c r="E143">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>148</v>
+      </c>
+      <c r="H143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.001084332819212417</v>
+        <v>0.001108629101786845</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -3719,18 +4583,24 @@
         <v>0.09933774834437085</v>
       </c>
       <c r="E144">
-        <v>0.03686433418465433</v>
-      </c>
-      <c r="F144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>0.03730609812073466</v>
+      </c>
+      <c r="F144">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
+        <v>149</v>
+      </c>
+      <c r="H144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0004926298866696217</v>
+        <v>0.0005019950615977105</v>
       </c>
       <c r="C145">
         <v>14</v>
@@ -3739,13 +4609,19 @@
         <v>0.09271523178807947</v>
       </c>
       <c r="E145">
-        <v>0.06693881905580565</v>
-      </c>
-      <c r="F145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>0.06606939322869995</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
+      <c r="G145" t="s">
+        <v>150</v>
+      </c>
+      <c r="H145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3759,18 +4635,24 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E146">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>151</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0002045175820010257</v>
+        <v>0.0002121044885945548</v>
       </c>
       <c r="C147">
         <v>11</v>
@@ -3779,13 +4661,19 @@
         <v>0.0728476821192053</v>
       </c>
       <c r="E147">
-        <v>0.06296323275447831</v>
-      </c>
-      <c r="F147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>0.06339671341746275</v>
+      </c>
+      <c r="F147">
+        <v>6</v>
+      </c>
+      <c r="G147" t="s">
+        <v>152</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3799,13 +4687,19 @@
         <v>0.04635761589403974</v>
       </c>
       <c r="E148">
-        <v>8.072185989538538e-11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>8.502336381382454e-11</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>153</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3819,18 +4713,24 @@
         <v>0.02649006622516556</v>
       </c>
       <c r="E149">
-        <v>2.005317431656347e-11</v>
-      </c>
-      <c r="F149" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>2.112176723565171e-11</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>154</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.005642913378012717</v>
+        <v>0.005951889354207237</v>
       </c>
       <c r="C150">
         <v>17</v>
@@ -3839,13 +4739,19 @@
         <v>0.1125827814569536</v>
       </c>
       <c r="E150">
-        <v>0.06333597040433736</v>
-      </c>
-      <c r="F150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>0.06250473357938716</v>
+      </c>
+      <c r="F150">
+        <v>8</v>
+      </c>
+      <c r="G150" t="s">
+        <v>155</v>
+      </c>
+      <c r="H150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3859,13 +4765,19 @@
         <v>0.01324503311258278</v>
       </c>
       <c r="E151">
-        <v>9.791589021759507e-15</v>
-      </c>
-      <c r="F151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>1.031336290803306e-14</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>156</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3879,13 +4791,19 @@
         <v>0.07947019867549669</v>
       </c>
       <c r="E152">
-        <v>0.06624201308028417</v>
-      </c>
-      <c r="F152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>0.06681147129054101</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>157</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3899,10 +4817,16 @@
         <v>0.03311258278145696</v>
       </c>
       <c r="E153">
-        <v>0.01930120757632192</v>
-      </c>
-      <c r="F153" t="s">
-        <v>156</v>
+        <v>0.01938888224278395</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>158</v>
+      </c>
+      <c r="H153">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Data/Star_Wars_Episode_IV_A_New_Hope/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_IV_A_New_Hope/centrality.xlsx
@@ -355,6 +355,9 @@
     <t>Bail Organa</t>
   </si>
   <si>
+    <t>Leesub Sirln</t>
+  </si>
+  <si>
     <t>Jenny</t>
   </si>
   <si>
@@ -442,22 +445,19 @@
     <t>Wedge Antilles</t>
   </si>
   <si>
+    <t>Hurst Romodi</t>
+  </si>
+  <si>
+    <t>Hem Dazon</t>
+  </si>
+  <si>
+    <t>Lak Sivrak</t>
+  </si>
+  <si>
+    <t>Trech Molock</t>
+  </si>
+  <si>
     <t>Momaw Nadon</t>
-  </si>
-  <si>
-    <t>Hurst Romodi</t>
-  </si>
-  <si>
-    <t>Hem Dazon</t>
-  </si>
-  <si>
-    <t>Lak Sivrak</t>
-  </si>
-  <si>
-    <t>Trech Molock</t>
-  </si>
-  <si>
-    <t>Leesub Sirln</t>
   </si>
   <si>
     <t>Beedo</t>
@@ -3641,22 +3641,22 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>0.03973509933774835</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>0.01938888224278395</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3667,22 +3667,22 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>0.05298013245033113</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E109">
-        <v>0.04804309988818879</v>
+        <v>0.01938888224278395</v>
       </c>
       <c r="F109">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3693,22 +3693,22 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>0.01324503311258278</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="E110">
-        <v>1.031336290803306e-14</v>
+        <v>0.04804309988818879</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3716,19 +3716,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3.050371262291792e-05</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>0.01986754966887417</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="E111">
-        <v>1.237603548963967e-13</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>116</v>
@@ -3742,25 +3742,25 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>3.050371262291792e-05</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>0.006622516556291391</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E112">
-        <v>1.031336290803306e-14</v>
+        <v>1.237603548963967e-13</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
         <v>117</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3771,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="E113">
         <v>1.031336290803306e-14</v>
@@ -3786,7 +3786,7 @@
         <v>118</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3794,25 +3794,25 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01191134671702056</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0.08609271523178808</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0.006785201254172848</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>119</v>
       </c>
       <c r="H114">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3820,16 +3820,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.005772626931567329</v>
+        <v>0.01191134671702056</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D115">
-        <v>0.03311258278145696</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="E115">
-        <v>0.001276728135448732</v>
+        <v>0.006785201254172848</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>120</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3846,19 +3846,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.005772626931567329</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>0.03973509933774835</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="E116">
-        <v>4.223322110839537e-11</v>
+        <v>0.001276728135448732</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3872,25 +3872,25 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.009539094112001116</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D117">
-        <v>0.2649006622516556</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E117">
-        <v>0.2607778547706891</v>
+        <v>4.223322110839537e-11</v>
       </c>
       <c r="F117">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3898,25 +3898,25 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>0.009539094112001116</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="E118">
-        <v>1.031336290803306e-14</v>
+        <v>0.2607778547706891</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3927,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0.02649006622516556</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>1.031336290803306e-14</v>
@@ -3942,7 +3942,7 @@
         <v>124</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3950,25 +3950,25 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.003090507726269316</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>0.0728476821192053</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E120">
-        <v>5.287612896410141e-07</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3976,25 +3976,25 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>0.003090507726269316</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>0.01986754966887417</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="E121">
-        <v>1.031336290803306e-14</v>
+        <v>5.287612896410141e-07</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4002,25 +4002,25 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.207505518763797e-05</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>0.05298013245033113</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E122">
-        <v>0.007266887387925967</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4028,25 +4028,25 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>2.207505518763797e-05</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D123">
-        <v>0.02649006622516556</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="E123">
-        <v>1.031336290803306e-14</v>
+        <v>0.007266887387925967</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4054,19 +4054,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.780580959388906e-05</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>0.03973509933774835</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E124">
-        <v>0.01938888224289739</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -4080,25 +4080,25 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.105603294525338</v>
+        <v>7.780580959388906e-05</v>
       </c>
       <c r="C125">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>0.7483443708609272</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E125">
-        <v>0.3400068297312452</v>
+        <v>0.01938888224289739</v>
       </c>
       <c r="F125">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
       </c>
       <c r="H125">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4106,25 +4106,25 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>0.105603294525338</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="D126">
-        <v>0.02649006622516556</v>
+        <v>0.7483443708609272</v>
       </c>
       <c r="E126">
-        <v>8.044423068265786e-13</v>
+        <v>0.3400068297312452</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>0.03973509933774835</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="E127">
-        <v>4.223322110839537e-11</v>
+        <v>8.044423068265786e-13</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -4150,7 +4150,7 @@
         <v>132</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4161,22 +4161,22 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>0.01986754966887417</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E128">
-        <v>2.112176723565171e-11</v>
+        <v>4.223322110839537e-11</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4187,22 +4187,22 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E129">
-        <v>1.031336290803306e-14</v>
+        <v>2.112176723565171e-11</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4213,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0.09933774834437085</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>1.031336290803306e-14</v>
@@ -4228,7 +4228,7 @@
         <v>135</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4239,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D131">
-        <v>0.01986754966887417</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="E131">
         <v>1.031336290803306e-14</v>
@@ -4254,7 +4254,7 @@
         <v>136</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4265,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>0.03311258278145696</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="E132">
         <v>1.031336290803306e-14</v>
@@ -4280,7 +4280,7 @@
         <v>137</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4288,25 +4288,25 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5.445180279617366e-05</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>0.03973509933774835</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="E133">
-        <v>0.001450220795120076</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4314,13 +4314,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>5.445180279617366e-05</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134">
-        <v>0.03311258278145696</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E134">
         <v>0.001450220795120076</v>
@@ -4332,7 +4332,7 @@
         <v>139</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4343,22 +4343,22 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="E135">
-        <v>1.031336290803306e-14</v>
+        <v>0.001450220795120076</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G135" t="s">
         <v>140</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4366,25 +4366,25 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.02928775355952276</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>0.1788079470198675</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>0.1686806798076949</v>
+        <v>1.031336290803306e-14</v>
       </c>
       <c r="F136">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G136" t="s">
         <v>141</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4392,25 +4392,25 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>0.02928775355952276</v>
       </c>
       <c r="C137">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D137">
-        <v>0.03973509933774835</v>
+        <v>0.1788079470198675</v>
       </c>
       <c r="E137">
-        <v>8.044423068265786e-13</v>
+        <v>0.1686806798076949</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
         <v>142</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4525,22 +4525,22 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="E142">
-        <v>1.031336290803306e-14</v>
+        <v>8.044423068265786e-13</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:8">
